--- a/data-raw/Spanish Biomass models def.xlsx
+++ b/data-raw/Spanish Biomass models def.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="388">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -1664,7 +1664,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1266840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1678,7 +1678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3713040" y="171360"/>
-          <a:ext cx="0" cy="227880"/>
+          <a:ext cx="0" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1701,7 +1701,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1266840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,7 +1715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3713040" y="171360"/>
-          <a:ext cx="0" cy="227880"/>
+          <a:ext cx="0" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,9 +1736,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1227960</xdr:colOff>
+      <xdr:colOff>1227600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1752,7 +1752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="190440"/>
-          <a:ext cx="1227960" cy="227880"/>
+          <a:ext cx="1227600" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,9 +1773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1456560</xdr:colOff>
+      <xdr:colOff>1456200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1789,7 +1789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="380880"/>
-          <a:ext cx="1456560" cy="228240"/>
+          <a:ext cx="1456200" cy="227880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,9 +1810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2466360</xdr:colOff>
+      <xdr:colOff>2466000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1826,7 +1826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="571680"/>
-          <a:ext cx="2466360" cy="237240"/>
+          <a:ext cx="2466000" cy="236880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1849,7 +1849,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>819000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1863,7 +1863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3265200" y="752760"/>
-          <a:ext cx="0" cy="227880"/>
+          <a:ext cx="0" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,9 +1884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1847160</xdr:colOff>
+      <xdr:colOff>1846800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1900,7 +1900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="762120"/>
-          <a:ext cx="1847160" cy="227880"/>
+          <a:ext cx="1846800" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,9 +1921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1113840</xdr:colOff>
+      <xdr:colOff>1113480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1937,7 +1937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="952560"/>
-          <a:ext cx="1113840" cy="237240"/>
+          <a:ext cx="1113480" cy="236880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1958,9 +1958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2133000</xdr:colOff>
+      <xdr:colOff>2132640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1974,7 +1974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2465280" y="1143000"/>
-          <a:ext cx="2113920" cy="237240"/>
+          <a:ext cx="2113560" cy="236880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1995,9 +1995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>862200</xdr:colOff>
+      <xdr:colOff>861840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2011,7 +2011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2471040" y="1333440"/>
-          <a:ext cx="837360" cy="237240"/>
+          <a:ext cx="837000" cy="236880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7069,8 +7069,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2" displayName="Tabla2" ref="A1:E200" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E200"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2" displayName="Tabla2" ref="A1:E201" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E201"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID_TAXON"/>
     <tableColumn id="2" name="LATIN_TAXON"/>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="K149" s="6" t="n">
         <f aca="false">K148*F149</f>
-        <v>0.106060859201019</v>
+        <v>0.10606085920102</v>
       </c>
       <c r="L149" s="6" t="n">
         <v>2.19404</v>
@@ -16628,10 +16628,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B188" activeCellId="0" sqref="B188"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18548,16 +18548,16 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="E113" s="1" t="n">
         <v>50</v>
@@ -18565,16 +18565,16 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>50</v>
@@ -18582,84 +18582,84 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>47.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>50</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>50</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E119" s="1" t="n">
         <v>50</v>
@@ -18667,16 +18667,16 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="E120" s="1" t="n">
         <v>50</v>
@@ -18684,84 +18684,84 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>47.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>50</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>273</v>
+        <v>66</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>48.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="E125" s="1" t="n">
         <v>50</v>
@@ -18769,16 +18769,16 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C126" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E126" s="1" t="n">
         <v>50</v>
@@ -18786,16 +18786,16 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E127" s="1" t="n">
         <v>50</v>
@@ -18803,16 +18803,16 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="E128" s="1" t="n">
         <v>50</v>
@@ -18820,16 +18820,16 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="E129" s="1" t="n">
         <v>50</v>
@@ -18837,10 +18837,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>66</v>
@@ -18854,16 +18854,16 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E131" s="1" t="n">
         <v>50</v>
@@ -18871,16 +18871,16 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E132" s="1" t="n">
         <v>50</v>
@@ -18888,10 +18888,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>66</v>
@@ -18905,16 +18905,16 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E134" s="1" t="n">
         <v>50</v>
@@ -18922,16 +18922,16 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="E135" s="1" t="n">
         <v>50</v>
@@ -18939,16 +18939,16 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="E136" s="1" t="n">
         <v>50</v>
@@ -18956,16 +18956,16 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="E137" s="1" t="n">
         <v>50</v>
@@ -18973,10 +18973,10 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>55</v>
@@ -18990,10 +18990,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>55</v>
@@ -19007,10 +19007,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>55</v>
@@ -19024,16 +19024,16 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E141" s="1" t="n">
         <v>50</v>
@@ -19041,16 +19041,16 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E142" s="1" t="n">
         <v>50</v>
@@ -19058,16 +19058,16 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="E143" s="1" t="n">
         <v>50</v>
@@ -19075,16 +19075,16 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="E144" s="1" t="n">
         <v>50</v>
@@ -19092,16 +19092,16 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="E145" s="1" t="n">
         <v>50</v>
@@ -19109,10 +19109,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>38</v>
@@ -19126,16 +19126,16 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="E147" s="1" t="n">
         <v>50</v>
@@ -19143,27 +19143,27 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>55</v>
@@ -19172,15 +19172,15 @@
         <v>82</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>50</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>55</v>
@@ -19194,84 +19194,84 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>47.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>50</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>48.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C155" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E155" s="1" t="n">
         <v>50</v>
@@ -19279,16 +19279,16 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E156" s="1" t="n">
         <v>50</v>
@@ -19296,10 +19296,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>55</v>
@@ -19313,10 +19313,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>55</v>
@@ -19330,10 +19330,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>55</v>
@@ -19347,10 +19347,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>55</v>
@@ -19364,10 +19364,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>55</v>
@@ -19381,16 +19381,16 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E162" s="1" t="n">
         <v>50</v>
@@ -19398,16 +19398,16 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="E163" s="1" t="n">
         <v>50</v>
@@ -19415,10 +19415,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>38</v>
@@ -19432,50 +19432,50 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>50</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E167" s="1" t="n">
         <v>50</v>
@@ -19483,50 +19483,50 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>47.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>50</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E170" s="1" t="n">
         <v>50</v>
@@ -19534,16 +19534,16 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E171" s="1" t="n">
         <v>50</v>
@@ -19551,16 +19551,16 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E172" s="1" t="n">
         <v>50</v>
@@ -19568,16 +19568,16 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E173" s="1" t="n">
         <v>50</v>
@@ -19585,10 +19585,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>55</v>
@@ -19602,10 +19602,10 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>55</v>
@@ -19619,10 +19619,10 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C176" s="1" t="n">
         <v>55</v>
@@ -19636,10 +19636,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>55</v>
@@ -19653,16 +19653,16 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E178" s="1" t="n">
         <v>50</v>
@@ -19670,16 +19670,16 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E179" s="1" t="n">
         <v>50</v>
@@ -19687,10 +19687,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>55</v>
@@ -19704,10 +19704,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>55</v>
@@ -19721,10 +19721,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
-        <v>657</v>
+        <v>599</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>55</v>
@@ -19738,16 +19738,16 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E183" s="1" t="n">
         <v>50</v>
@@ -19755,16 +19755,16 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E184" s="1" t="n">
         <v>50</v>
@@ -19772,10 +19772,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
-        <v>757</v>
+        <v>678</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C185" s="1" t="n">
         <v>55</v>
@@ -19789,16 +19789,16 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E186" s="1" t="n">
         <v>50</v>
@@ -19806,16 +19806,16 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E187" s="1" t="n">
         <v>50</v>
@@ -19823,10 +19823,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>857</v>
+        <v>778</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>55</v>
@@ -19840,10 +19840,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>55</v>
@@ -19857,10 +19857,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>957</v>
+        <v>858</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C190" s="1" t="n">
         <v>55</v>
@@ -19874,7 +19874,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>958</v>
+        <v>957</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="C191" s="1" t="n">
         <v>55</v>
@@ -19888,7 +19891,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>976</v>
+        <v>958</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>55</v>
@@ -19902,7 +19905,7 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>926</v>
+        <v>976</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>55</v>
@@ -19916,16 +19919,13 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>307</v>
+        <v>926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="E194" s="1" t="n">
         <v>50</v>
@@ -19933,10 +19933,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C195" s="1" t="n">
         <v>38</v>
@@ -19950,13 +19950,16 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>919</v>
+        <v>937</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="E196" s="1" t="n">
         <v>50</v>
@@ -19964,7 +19967,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>990</v>
+        <v>919</v>
       </c>
       <c r="C197" s="1" t="n">
         <v>55</v>
@@ -19978,10 +19981,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>955</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>281</v>
+        <v>990</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>55</v>
@@ -19995,7 +19995,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
-        <v>837</v>
+        <v>955</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C199" s="1" t="n">
         <v>55</v>
@@ -20009,7 +20012,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>989</v>
+        <v>837</v>
       </c>
       <c r="C200" s="1" t="n">
         <v>55</v>
@@ -20018,6 +20021,20 @@
         <v>82</v>
       </c>
       <c r="E200" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="C201" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E201" s="1" t="n">
         <v>50</v>
       </c>
     </row>

--- a/data-raw/Spanish Biomass models def.xlsx
+++ b/data-raw/Spanish Biomass models def.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="389">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t xml:space="preserve">Juniperus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lonicera spp.</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -1664,7 +1667,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1266840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1678,7 +1681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3713040" y="171360"/>
-          <a:ext cx="0" cy="227520"/>
+          <a:ext cx="0" cy="227160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1701,7 +1704,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1266840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,7 +1718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3713040" y="171360"/>
-          <a:ext cx="0" cy="227520"/>
+          <a:ext cx="0" cy="227160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,9 +1739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1227600</xdr:colOff>
+      <xdr:colOff>1227240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1752,7 +1755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="190440"/>
-          <a:ext cx="1227600" cy="227520"/>
+          <a:ext cx="1227240" cy="227160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,9 +1776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1456200</xdr:colOff>
+      <xdr:colOff>1455840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1789,7 +1792,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="380880"/>
-          <a:ext cx="1456200" cy="227880"/>
+          <a:ext cx="1455840" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2466000</xdr:colOff>
+      <xdr:colOff>2465640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1826,7 +1829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="571680"/>
-          <a:ext cx="2466000" cy="236880"/>
+          <a:ext cx="2465640" cy="236520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1849,7 +1852,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>819000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1863,7 +1866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3265200" y="752760"/>
-          <a:ext cx="0" cy="227520"/>
+          <a:ext cx="0" cy="227160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,9 +1887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1846800</xdr:colOff>
+      <xdr:colOff>1846440</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1900,7 +1903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="762120"/>
-          <a:ext cx="1846800" cy="227520"/>
+          <a:ext cx="1846440" cy="227160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,9 +1924,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1113480</xdr:colOff>
+      <xdr:colOff>1113120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1937,7 +1940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446200" y="952560"/>
-          <a:ext cx="1113480" cy="236880"/>
+          <a:ext cx="1113120" cy="236520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1958,9 +1961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2132640</xdr:colOff>
+      <xdr:colOff>2132280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1974,7 +1977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2465280" y="1143000"/>
-          <a:ext cx="2113560" cy="236880"/>
+          <a:ext cx="2113200" cy="236520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1995,9 +1998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>861840</xdr:colOff>
+      <xdr:colOff>861480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2011,7 +2014,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2471040" y="1333440"/>
-          <a:ext cx="837000" cy="236880"/>
+          <a:ext cx="836640" cy="236520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16628,10 +16631,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20035,6 +20038,23 @@
         <v>82</v>
       </c>
       <c r="E201" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C202" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E202" s="1" t="n">
         <v>50</v>
       </c>
     </row>
@@ -20072,16 +20092,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20090,10 +20110,10 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20102,10 +20122,10 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20114,10 +20134,10 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20126,10 +20146,10 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20138,10 +20158,10 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20150,10 +20170,10 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20162,10 +20182,10 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20173,10 +20193,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>126</v>
@@ -20184,7 +20204,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20194,22 +20214,22 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B20" s="16"/>
     </row>
@@ -20226,7 +20246,7 @@
         <v>169</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20234,7 +20254,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20242,7 +20262,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20250,7 +20270,7 @@
         <v>82</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20258,7 +20278,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -20292,7 +20312,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20300,7 +20320,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20308,7 +20328,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20317,7 +20337,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -20329,10 +20349,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20340,10 +20360,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20351,10 +20371,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20362,11 +20382,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -20402,7 +20422,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20751,7 +20771,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" s="36" t="n">
         <v>259</v>
@@ -20924,7 +20944,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
@@ -20953,7 +20973,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -20979,7 +20999,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -21005,7 +21025,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>36</v>
@@ -21043,7 +21063,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
@@ -21069,7 +21089,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -21095,7 +21115,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -21118,7 +21138,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>41</v>
@@ -21156,7 +21176,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
@@ -21182,7 +21202,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -21208,7 +21228,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>41</v>
@@ -21234,7 +21254,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>44</v>
@@ -21254,7 +21274,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
@@ -21292,7 +21312,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>44</v>
@@ -21318,7 +21338,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>44</v>
@@ -21347,7 +21367,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>44</v>
@@ -21373,7 +21393,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>46</v>
@@ -21399,7 +21419,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -21437,7 +21457,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
@@ -21460,7 +21480,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
@@ -21483,7 +21503,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -21509,7 +21529,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
@@ -21535,7 +21555,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>49</v>
@@ -21573,7 +21593,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>49</v>
@@ -21599,7 +21619,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>49</v>
@@ -21625,7 +21645,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>49</v>
@@ -21651,7 +21671,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>51</v>
@@ -21680,7 +21700,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>51</v>
@@ -21709,7 +21729,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>51</v>
@@ -21738,7 +21758,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>51</v>
@@ -21767,7 +21787,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>54</v>
@@ -21793,7 +21813,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>54</v>
@@ -21831,7 +21851,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>54</v>
@@ -21857,7 +21877,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>54</v>
@@ -21886,7 +21906,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>54</v>
@@ -21912,7 +21932,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>56</v>
@@ -21938,7 +21958,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>56</v>
@@ -21976,7 +21996,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>56</v>
@@ -22002,7 +22022,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>56</v>
@@ -22028,7 +22048,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>56</v>
@@ -22054,7 +22074,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>59</v>
@@ -22080,7 +22100,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>59</v>
@@ -22106,7 +22126,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>59</v>
@@ -22135,7 +22155,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>59</v>
